--- a/11th Grade/Physics C Mechanics/Labs/Toy Car Lab/Toy Car Lab Graph.xlsx
+++ b/11th Grade/Physics C Mechanics/Labs/Toy Car Lab/Toy Car Lab Graph.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tymarking/Documents/School-Work/11th Grade/Physics C Mechanics/Labs/Toy Car Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mass Storage\School Work (Current Year)\11th Grade\Physics C Mechanics\Labs\Toy Car Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="10320" windowHeight="10515" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -86,12 +87,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -129,13 +133,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Car Lab </a:t>
+              <a:t> Car Lab - Ty Marking </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -218,7 +221,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="2.0"/>
+            <c:forward val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -259,7 +262,7 @@
                   <c:v>6.01</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,42 +274,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-415D-4DBF-ADBB-D7204D2A2FFA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -323,7 +331,7 @@
         <c:axId val="-2110553152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.0"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -367,7 +375,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -397,6 +404,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -489,7 +497,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -519,6 +526,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -599,7 +607,621 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Toy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Car Lab</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.9114570917976227E-2"/>
+                  <c:y val="5.7578077055834127E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:t>x = 0.3322t</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1800"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9001-40CB-911F-C7D99EC43A8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="179074152"/>
+        <c:axId val="507339896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="179074152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507339896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="507339896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="179074152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1155,24 +1777,587 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>669925</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D677B91-D97E-4CD6-956D-4EAFAC2BE9C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1452,16 +2637,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="H4:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
         <v>1</v>
       </c>
@@ -1469,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H5">
         <v>6.04</v>
       </c>
@@ -1477,7 +2662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>5.94</v>
       </c>
@@ -1485,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>6.03</v>
       </c>
@@ -1493,7 +2678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>5.69</v>
       </c>
@@ -1501,7 +2686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>6.34</v>
       </c>
@@ -1509,7 +2694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>6.23</v>
       </c>
@@ -1517,7 +2702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>6.01</v>
       </c>
@@ -1525,7 +2710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>5.89</v>
       </c>
@@ -1533,7 +2718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>5.98</v>
       </c>
@@ -1541,7 +2726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H14">
         <v>6.01</v>
       </c>
@@ -1549,7 +2734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>0</v>
       </c>
@@ -1560,7 +2745,23 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC37523E-A977-4BC5-8283-86661C2BC8D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>